--- a/import.xlsx
+++ b/import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="19875" windowHeight="7725"/>
+    <workbookView xWindow="480" yWindow="345" windowWidth="19875" windowHeight="7725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="1200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="1216">
   <si>
     <t>STT</t>
   </si>
@@ -3618,6 +3618,54 @@
   </si>
   <si>
     <t>The foggy afternoon - Tell a story in Flyers Speaking part_00-00-50.jpg</t>
+  </si>
+  <si>
+    <t>Lễ hội Cầu ngư lễ hội thường được tổ chức từ 12 tháng giêng đến tháng 6 âm lịch hàng năm tùy thuộc mỗi địa phương.</t>
+  </si>
+  <si>
+    <t>Kinh thành Huế là một công trình đồ sộ có kiến trúc đặc sắc. Chùa Thiên mụ còn gọi là chùa Linh mụ được chúa Nguyễn Hoàng cho xây dựng vào năm 1601</t>
+  </si>
+  <si>
+    <t>Bài 18 phố cổ Hội An. Tháng 12 năm 1999 phố cổ Hội An đã được unesco ghi danh là di sản văn hóa thế giới.</t>
+  </si>
+  <si>
+    <t>Chùa cầu ban đầu là một cây cầu được xây dựng bởi các thương nhân người Nhật Bản và bạn thế kỷ 16 nên còn có tên gọi là cầu Nhật Bản. Năm 1653 ở sườn cầu phía bắc được dựng thêm phần chùa nên cây cầu được gọi là chùa cầu.</t>
+  </si>
+  <si>
+    <t>51719 chúa Nguyễn Phúc Chu thăm Hội An đặt tên cho chiếc cầu là like Nguyễn Kiều với nghĩa là cầu đón khách Phương xa</t>
+  </si>
+  <si>
+    <t>Năm 1719 chúa Nguyễn Phúc Chu thăm Hội An đặt tên cho chiếc cầu là lai viễn Kiều với nghĩa là cầu đón khách Phương xa.</t>
+  </si>
+  <si>
+    <t>Bài 16</t>
+  </si>
+  <si>
+    <t>Lễ hội Lam Kinh: đại hội được tổ chức hàng năm vào ngày 22 tháng 8 âm lịch ngày giỗ của vua Lê Thái tổ tại khu vực Lam Kinh thuộc huyện Thọ Xuân, tỉnh Thanh Hóa.</t>
+  </si>
+  <si>
+    <t>Bài 18</t>
+  </si>
+  <si>
+    <t>Ẩm thực của vùng duyên hải miền Trung hầu hết đều mang hương vị đặc trưng là cay và đậm đà, ngoài những món ăn mặn còn có các loại bánh chè và thường được chế biến từ mạch nha đường phèn.</t>
+  </si>
+  <si>
+    <t>Vùng duyên hải miền Trung được mệnh danh là con đường di sản, Nó hội tụ những giá trị văn hóa lịch sử và thiên nhiên của Việt Nam nổi tiếng với nhiều di sản thế giới được Unesco ghi danh.</t>
+  </si>
+  <si>
+    <t>Phần lễ được thực hiện theo nghi thức cổ truyền như màn trống hội, cờ hội, rước kiệu. Sau phần lễ là các chương trình nghệ thuật tái diễn các sự kiện như Hội thề Lũng Nhai, giải phóng Thành Đông Quan, vua Lê Thái tổ đăng quang, phát huy Hào khí Lam Sơn.</t>
+  </si>
+  <si>
+    <t>Phần lễ với nghi thức quan trọng nhất là cúng cá ông cá voi. Phần hội chủ yếu là các trò chơi dân gian đặc trưng của cư dân vùng biển như: đua thuyền, lắc thúng, bơi lội, đan lưới, kéo co.</t>
+  </si>
+  <si>
+    <t>Lễ hội Ka-tê của người Chăm được tổ chức vào tháng 7 hàng năm theo lịch chăm tháng 9 hoặc tháng 10 dương lịch. Các nghi lễ truyền thống gồm lễ rước y trang, đại lễ cúng mừng Ka-tê tại tháp chính. Lễ hội Ka-tê còn có phần hội với các trò chơi dân gian như: thi đi cà kheo, làm bánh gừng, thi giã gạo, đội nước, vượt chướng ngại vật.</t>
+  </si>
+  <si>
+    <t>Sông Hương bắt nguồn từ để Trường Sơn chạy qua thành phố Huế.</t>
+  </si>
+  <si>
+    <t>Bài 17: cố đô Huế</t>
   </si>
 </sst>
 </file>
@@ -3978,11 +4026,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="13" topLeftCell="L14" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="13" topLeftCell="L111" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomRight" activeCell="M122" sqref="M122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10077,10 +10125,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A9:Q64"/>
+  <dimension ref="A9:Q79"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10967,6 +11015,95 @@
         <v>1174</v>
       </c>
     </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="B69" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="B70" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="B71" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="B72" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="B73" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1205</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/import.xlsx
+++ b/import.xlsx
@@ -4,21 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="19875" windowHeight="7725" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="345" windowWidth="19875" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1 (2)" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Z$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Z$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Sheet1 (2)'!$A$1:$Z$121</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="1216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="1216">
   <si>
     <t>STT</t>
   </si>
@@ -4024,10 +4026,2158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="13" topLeftCell="H14" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15:XFD106"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" customWidth="1"/>
+    <col min="13" max="13" width="37.140625" customWidth="1"/>
+    <col min="14" max="14" width="31.5703125" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.85546875" customWidth="1"/>
+    <col min="21" max="21" width="37.140625" customWidth="1"/>
+    <col min="22" max="22" width="31.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" t="s">
+        <v>43</v>
+      </c>
+      <c r="S4" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S5" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>50</v>
+      </c>
+      <c r="R6" t="s">
+        <v>51</v>
+      </c>
+      <c r="S6" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>53</v>
+      </c>
+      <c r="R7" t="s">
+        <v>54</v>
+      </c>
+      <c r="S7" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>57</v>
+      </c>
+      <c r="R8" t="s">
+        <v>58</v>
+      </c>
+      <c r="S8" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="I9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" t="s">
+        <v>59</v>
+      </c>
+      <c r="O9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>61</v>
+      </c>
+      <c r="R9" t="s">
+        <v>62</v>
+      </c>
+      <c r="S9" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" t="s">
+        <v>63</v>
+      </c>
+      <c r="O10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>65</v>
+      </c>
+      <c r="R10" t="s">
+        <v>66</v>
+      </c>
+      <c r="S10" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" t="s">
+        <v>82</v>
+      </c>
+      <c r="L11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>69</v>
+      </c>
+      <c r="R11" t="s">
+        <v>70</v>
+      </c>
+      <c r="S11" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="I12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>72</v>
+      </c>
+      <c r="R12" t="s">
+        <v>73</v>
+      </c>
+      <c r="S12" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="I13" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" t="s">
+        <v>74</v>
+      </c>
+      <c r="O13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>76</v>
+      </c>
+      <c r="R13" t="s">
+        <v>77</v>
+      </c>
+      <c r="S13" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="I14" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" t="s">
+        <v>82</v>
+      </c>
+      <c r="L14" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" t="s">
+        <v>78</v>
+      </c>
+      <c r="O14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>80</v>
+      </c>
+      <c r="R14" t="s">
+        <v>81</v>
+      </c>
+      <c r="S14" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" t="s">
+        <v>86</v>
+      </c>
+      <c r="K15" t="s">
+        <v>969</v>
+      </c>
+      <c r="L15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" t="s">
+        <v>955</v>
+      </c>
+      <c r="N15" t="s">
+        <v>1108</v>
+      </c>
+      <c r="O15" t="s">
+        <v>955</v>
+      </c>
+      <c r="P15" t="s">
+        <v>1109</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>1110</v>
+      </c>
+      <c r="R15" t="s">
+        <v>1111</v>
+      </c>
+      <c r="S15" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" t="s">
+        <v>969</v>
+      </c>
+      <c r="L16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" t="s">
+        <v>1091</v>
+      </c>
+      <c r="N16" t="s">
+        <v>1112</v>
+      </c>
+      <c r="O16" t="s">
+        <v>1092</v>
+      </c>
+      <c r="P16" t="s">
+        <v>1113</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>1114</v>
+      </c>
+      <c r="R16" t="s">
+        <v>1115</v>
+      </c>
+      <c r="S16" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="I17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J17" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" t="s">
+        <v>969</v>
+      </c>
+      <c r="L17" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" t="s">
+        <v>1093</v>
+      </c>
+      <c r="N17" t="s">
+        <v>1116</v>
+      </c>
+      <c r="O17" t="s">
+        <v>1094</v>
+      </c>
+      <c r="P17" t="s">
+        <v>1117</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>1118</v>
+      </c>
+      <c r="R17" t="s">
+        <v>1119</v>
+      </c>
+      <c r="S17" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="1">
+        <v>4</v>
+      </c>
+      <c r="I18" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" t="s">
+        <v>969</v>
+      </c>
+      <c r="L18" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18" t="s">
+        <v>958</v>
+      </c>
+      <c r="N18" t="s">
+        <v>1120</v>
+      </c>
+      <c r="O18" t="s">
+        <v>951</v>
+      </c>
+      <c r="P18" t="s">
+        <v>1121</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>1122</v>
+      </c>
+      <c r="R18" t="s">
+        <v>1123</v>
+      </c>
+      <c r="S18" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="1">
+        <v>5</v>
+      </c>
+      <c r="I19" t="s">
+        <v>84</v>
+      </c>
+      <c r="J19" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" t="s">
+        <v>969</v>
+      </c>
+      <c r="L19" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" t="s">
+        <v>959</v>
+      </c>
+      <c r="N19" t="s">
+        <v>1124</v>
+      </c>
+      <c r="O19" t="s">
+        <v>953</v>
+      </c>
+      <c r="P19" t="s">
+        <v>1125</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>1126</v>
+      </c>
+      <c r="R19" t="s">
+        <v>1127</v>
+      </c>
+      <c r="S19" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="1">
+        <v>6</v>
+      </c>
+      <c r="I20" t="s">
+        <v>84</v>
+      </c>
+      <c r="J20" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20" t="s">
+        <v>969</v>
+      </c>
+      <c r="L20" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" t="s">
+        <v>960</v>
+      </c>
+      <c r="N20" t="s">
+        <v>1128</v>
+      </c>
+      <c r="O20" t="s">
+        <v>954</v>
+      </c>
+      <c r="P20" t="s">
+        <v>1129</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>1130</v>
+      </c>
+      <c r="R20" t="s">
+        <v>1131</v>
+      </c>
+      <c r="S20" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="1">
+        <v>7</v>
+      </c>
+      <c r="I21" t="s">
+        <v>84</v>
+      </c>
+      <c r="J21" t="s">
+        <v>86</v>
+      </c>
+      <c r="K21" t="s">
+        <v>969</v>
+      </c>
+      <c r="L21" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" t="s">
+        <v>961</v>
+      </c>
+      <c r="N21" t="s">
+        <v>1132</v>
+      </c>
+      <c r="O21" t="s">
+        <v>1095</v>
+      </c>
+      <c r="P21" t="s">
+        <v>1133</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>1134</v>
+      </c>
+      <c r="R21" t="s">
+        <v>1135</v>
+      </c>
+      <c r="S21" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="1">
+        <v>8</v>
+      </c>
+      <c r="I22" t="s">
+        <v>84</v>
+      </c>
+      <c r="J22" t="s">
+        <v>86</v>
+      </c>
+      <c r="K22" t="s">
+        <v>969</v>
+      </c>
+      <c r="L22" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" t="s">
+        <v>1096</v>
+      </c>
+      <c r="N22" t="s">
+        <v>1136</v>
+      </c>
+      <c r="O22" t="s">
+        <v>1097</v>
+      </c>
+      <c r="P22" t="s">
+        <v>1137</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>1138</v>
+      </c>
+      <c r="R22" t="s">
+        <v>1139</v>
+      </c>
+      <c r="S22" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="1">
+        <v>9</v>
+      </c>
+      <c r="I23" t="s">
+        <v>84</v>
+      </c>
+      <c r="J23" t="s">
+        <v>86</v>
+      </c>
+      <c r="K23" t="s">
+        <v>969</v>
+      </c>
+      <c r="L23" t="s">
+        <v>15</v>
+      </c>
+      <c r="M23" t="s">
+        <v>963</v>
+      </c>
+      <c r="N23" t="s">
+        <v>1140</v>
+      </c>
+      <c r="O23" t="s">
+        <v>1098</v>
+      </c>
+      <c r="P23" t="s">
+        <v>1141</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>1142</v>
+      </c>
+      <c r="R23" t="s">
+        <v>1143</v>
+      </c>
+      <c r="S23" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="1">
+        <v>10</v>
+      </c>
+      <c r="I24" t="s">
+        <v>84</v>
+      </c>
+      <c r="J24" t="s">
+        <v>86</v>
+      </c>
+      <c r="K24" t="s">
+        <v>969</v>
+      </c>
+      <c r="L24" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" t="s">
+        <v>1099</v>
+      </c>
+      <c r="N24" t="s">
+        <v>1144</v>
+      </c>
+      <c r="O24" t="s">
+        <v>1100</v>
+      </c>
+      <c r="P24" t="s">
+        <v>1145</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>1146</v>
+      </c>
+      <c r="R24" t="s">
+        <v>1147</v>
+      </c>
+      <c r="S24" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="1">
+        <v>11</v>
+      </c>
+      <c r="I25" t="s">
+        <v>84</v>
+      </c>
+      <c r="J25" t="s">
+        <v>86</v>
+      </c>
+      <c r="K25" t="s">
+        <v>969</v>
+      </c>
+      <c r="L25" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" t="s">
+        <v>1101</v>
+      </c>
+      <c r="N25" t="s">
+        <v>1148</v>
+      </c>
+      <c r="O25" t="s">
+        <v>1102</v>
+      </c>
+      <c r="P25" t="s">
+        <v>1103</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>1149</v>
+      </c>
+      <c r="R25" t="s">
+        <v>1150</v>
+      </c>
+      <c r="S25" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="1">
+        <v>12</v>
+      </c>
+      <c r="I26" t="s">
+        <v>84</v>
+      </c>
+      <c r="J26" t="s">
+        <v>86</v>
+      </c>
+      <c r="K26" t="s">
+        <v>969</v>
+      </c>
+      <c r="L26" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26" t="s">
+        <v>1104</v>
+      </c>
+      <c r="N26" t="s">
+        <v>1151</v>
+      </c>
+      <c r="O26" t="s">
+        <v>1105</v>
+      </c>
+      <c r="P26" t="s">
+        <v>1152</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>1153</v>
+      </c>
+      <c r="R26" t="s">
+        <v>1154</v>
+      </c>
+      <c r="S26" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="1">
+        <v>13</v>
+      </c>
+      <c r="I27" t="s">
+        <v>84</v>
+      </c>
+      <c r="J27" t="s">
+        <v>86</v>
+      </c>
+      <c r="K27" t="s">
+        <v>969</v>
+      </c>
+      <c r="L27" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27" t="s">
+        <v>967</v>
+      </c>
+      <c r="N27" t="s">
+        <v>1155</v>
+      </c>
+      <c r="O27" t="s">
+        <v>1106</v>
+      </c>
+      <c r="P27" t="s">
+        <v>1156</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>1157</v>
+      </c>
+      <c r="R27" t="s">
+        <v>1158</v>
+      </c>
+      <c r="S27" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="1">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>84</v>
+      </c>
+      <c r="J28" t="s">
+        <v>86</v>
+      </c>
+      <c r="K28" t="s">
+        <v>969</v>
+      </c>
+      <c r="L28" t="s">
+        <v>15</v>
+      </c>
+      <c r="M28" t="s">
+        <v>1107</v>
+      </c>
+      <c r="N28" t="s">
+        <v>1159</v>
+      </c>
+      <c r="O28" t="s">
+        <v>1107</v>
+      </c>
+      <c r="P28" t="s">
+        <v>1167</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>1168</v>
+      </c>
+      <c r="R28" t="s">
+        <v>1169</v>
+      </c>
+      <c r="S28" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="1">
+        <v>15</v>
+      </c>
+      <c r="I29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J29" t="s">
+        <v>86</v>
+      </c>
+      <c r="K29" t="s">
+        <v>969</v>
+      </c>
+      <c r="L29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M29" t="s">
+        <v>1161</v>
+      </c>
+      <c r="N29" t="s">
+        <v>1162</v>
+      </c>
+      <c r="O29" t="s">
+        <v>1161</v>
+      </c>
+      <c r="P29" t="s">
+        <v>1163</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>1164</v>
+      </c>
+      <c r="R29" t="s">
+        <v>1165</v>
+      </c>
+      <c r="S29" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A9:Q79"/>
+  <sheetViews>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" t="s">
+        <v>955</v>
+      </c>
+      <c r="D28" t="s">
+        <v>956</v>
+      </c>
+      <c r="E28" t="s">
+        <v>957</v>
+      </c>
+      <c r="F28" t="s">
+        <v>958</v>
+      </c>
+      <c r="G28" t="s">
+        <v>959</v>
+      </c>
+      <c r="H28" t="s">
+        <v>960</v>
+      </c>
+      <c r="I28" t="s">
+        <v>961</v>
+      </c>
+      <c r="J28" t="s">
+        <v>962</v>
+      </c>
+      <c r="K28" t="s">
+        <v>963</v>
+      </c>
+      <c r="L28" t="s">
+        <v>964</v>
+      </c>
+      <c r="M28" t="s">
+        <v>965</v>
+      </c>
+      <c r="N28" t="s">
+        <v>966</v>
+      </c>
+      <c r="O28" t="s">
+        <v>967</v>
+      </c>
+      <c r="P28" t="s">
+        <v>968</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>969</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H48" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>969</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>952</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1171</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1172</v>
+      </c>
+      <c r="H49" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>969</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H50" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>969</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>958</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E51" t="s">
+        <v>951</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H51" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>969</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" t="s">
+        <v>959</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E52" t="s">
+        <v>953</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H52" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>969</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" t="s">
+        <v>960</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E53" t="s">
+        <v>954</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H53" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>969</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
+        <v>961</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H54" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>969</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1137</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1138</v>
+      </c>
+      <c r="H55" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>969</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>963</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1141</v>
+      </c>
+      <c r="G56" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H56" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>969</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H57" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>969</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1149</v>
+      </c>
+      <c r="H58" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>969</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1152</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1153</v>
+      </c>
+      <c r="H59" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>969</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>967</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1156</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1157</v>
+      </c>
+      <c r="H60" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>969</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="B69" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="B70" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="B71" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="B72" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="B73" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="13" topLeftCell="L111" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="13" topLeftCell="L90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
       <selection pane="bottomRight" activeCell="M122" sqref="M122"/>
@@ -10121,991 +12271,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A9:Q79"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" t="s">
-        <v>61</v>
-      </c>
-      <c r="H20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" t="s">
-        <v>65</v>
-      </c>
-      <c r="H21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" t="s">
-        <v>71</v>
-      </c>
-      <c r="G23" t="s">
-        <v>72</v>
-      </c>
-      <c r="H23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" t="s">
-        <v>75</v>
-      </c>
-      <c r="G24" t="s">
-        <v>76</v>
-      </c>
-      <c r="H24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" t="s">
-        <v>79</v>
-      </c>
-      <c r="G25" t="s">
-        <v>80</v>
-      </c>
-      <c r="H25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" t="s">
-        <v>955</v>
-      </c>
-      <c r="D28" t="s">
-        <v>956</v>
-      </c>
-      <c r="E28" t="s">
-        <v>957</v>
-      </c>
-      <c r="F28" t="s">
-        <v>958</v>
-      </c>
-      <c r="G28" t="s">
-        <v>959</v>
-      </c>
-      <c r="H28" t="s">
-        <v>960</v>
-      </c>
-      <c r="I28" t="s">
-        <v>961</v>
-      </c>
-      <c r="J28" t="s">
-        <v>962</v>
-      </c>
-      <c r="K28" t="s">
-        <v>963</v>
-      </c>
-      <c r="L28" t="s">
-        <v>964</v>
-      </c>
-      <c r="M28" t="s">
-        <v>965</v>
-      </c>
-      <c r="N28" t="s">
-        <v>966</v>
-      </c>
-      <c r="O28" t="s">
-        <v>967</v>
-      </c>
-      <c r="P28" t="s">
-        <v>968</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" t="s">
-        <v>3</v>
-      </c>
-      <c r="B47" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" t="s">
-        <v>969</v>
-      </c>
-      <c r="B48" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1159</v>
-      </c>
-      <c r="E48" t="s">
-        <v>1107</v>
-      </c>
-      <c r="F48" t="s">
-        <v>1167</v>
-      </c>
-      <c r="G48" t="s">
-        <v>1168</v>
-      </c>
-      <c r="H48" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" t="s">
-        <v>969</v>
-      </c>
-      <c r="B49" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" t="s">
-        <v>952</v>
-      </c>
-      <c r="D49" t="s">
-        <v>1170</v>
-      </c>
-      <c r="E49" t="s">
-        <v>1161</v>
-      </c>
-      <c r="F49" t="s">
-        <v>1171</v>
-      </c>
-      <c r="G49" t="s">
-        <v>1172</v>
-      </c>
-      <c r="H49" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" t="s">
-        <v>969</v>
-      </c>
-      <c r="B50" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D50" t="s">
-        <v>1116</v>
-      </c>
-      <c r="E50" t="s">
-        <v>1094</v>
-      </c>
-      <c r="F50" t="s">
-        <v>1117</v>
-      </c>
-      <c r="G50" t="s">
-        <v>1118</v>
-      </c>
-      <c r="H50" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="s">
-        <v>969</v>
-      </c>
-      <c r="B51" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" t="s">
-        <v>958</v>
-      </c>
-      <c r="D51" t="s">
-        <v>1120</v>
-      </c>
-      <c r="E51" t="s">
-        <v>951</v>
-      </c>
-      <c r="F51" t="s">
-        <v>1121</v>
-      </c>
-      <c r="G51" t="s">
-        <v>1122</v>
-      </c>
-      <c r="H51" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" t="s">
-        <v>969</v>
-      </c>
-      <c r="B52" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" t="s">
-        <v>959</v>
-      </c>
-      <c r="D52" t="s">
-        <v>1124</v>
-      </c>
-      <c r="E52" t="s">
-        <v>953</v>
-      </c>
-      <c r="F52" t="s">
-        <v>1125</v>
-      </c>
-      <c r="G52" t="s">
-        <v>1126</v>
-      </c>
-      <c r="H52" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" t="s">
-        <v>969</v>
-      </c>
-      <c r="B53" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" t="s">
-        <v>960</v>
-      </c>
-      <c r="D53" t="s">
-        <v>1128</v>
-      </c>
-      <c r="E53" t="s">
-        <v>954</v>
-      </c>
-      <c r="F53" t="s">
-        <v>1129</v>
-      </c>
-      <c r="G53" t="s">
-        <v>1130</v>
-      </c>
-      <c r="H53" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" t="s">
-        <v>969</v>
-      </c>
-      <c r="B54" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" t="s">
-        <v>961</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1132</v>
-      </c>
-      <c r="E54" t="s">
-        <v>1095</v>
-      </c>
-      <c r="F54" t="s">
-        <v>1133</v>
-      </c>
-      <c r="G54" t="s">
-        <v>1134</v>
-      </c>
-      <c r="H54" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" t="s">
-        <v>969</v>
-      </c>
-      <c r="B55" t="s">
-        <v>15</v>
-      </c>
-      <c r="C55" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D55" t="s">
-        <v>1136</v>
-      </c>
-      <c r="E55" t="s">
-        <v>1097</v>
-      </c>
-      <c r="F55" t="s">
-        <v>1137</v>
-      </c>
-      <c r="G55" t="s">
-        <v>1138</v>
-      </c>
-      <c r="H55" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" t="s">
-        <v>969</v>
-      </c>
-      <c r="B56" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" t="s">
-        <v>963</v>
-      </c>
-      <c r="D56" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E56" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F56" t="s">
-        <v>1141</v>
-      </c>
-      <c r="G56" t="s">
-        <v>1142</v>
-      </c>
-      <c r="H56" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" t="s">
-        <v>969</v>
-      </c>
-      <c r="B57" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D57" t="s">
-        <v>1144</v>
-      </c>
-      <c r="E57" t="s">
-        <v>1100</v>
-      </c>
-      <c r="F57" t="s">
-        <v>1145</v>
-      </c>
-      <c r="G57" t="s">
-        <v>1146</v>
-      </c>
-      <c r="H57" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" t="s">
-        <v>969</v>
-      </c>
-      <c r="B58" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D58" t="s">
-        <v>1148</v>
-      </c>
-      <c r="E58" t="s">
-        <v>1102</v>
-      </c>
-      <c r="F58" t="s">
-        <v>1103</v>
-      </c>
-      <c r="G58" t="s">
-        <v>1149</v>
-      </c>
-      <c r="H58" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" t="s">
-        <v>969</v>
-      </c>
-      <c r="B59" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D59" t="s">
-        <v>1151</v>
-      </c>
-      <c r="E59" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F59" t="s">
-        <v>1152</v>
-      </c>
-      <c r="G59" t="s">
-        <v>1153</v>
-      </c>
-      <c r="H59" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" t="s">
-        <v>969</v>
-      </c>
-      <c r="B60" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" t="s">
-        <v>967</v>
-      </c>
-      <c r="D60" t="s">
-        <v>1155</v>
-      </c>
-      <c r="E60" t="s">
-        <v>1106</v>
-      </c>
-      <c r="F60" t="s">
-        <v>1156</v>
-      </c>
-      <c r="G60" t="s">
-        <v>1157</v>
-      </c>
-      <c r="H60" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" t="s">
-        <v>969</v>
-      </c>
-      <c r="B61" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D61" t="s">
-        <v>1159</v>
-      </c>
-      <c r="E61" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="B69" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="B70" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="B71" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="B72" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="B73" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B74" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B75" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B76" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B77" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B78" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>